--- a/CutoffDate_Test/ExcelFiles/FFmpeg.xlsx
+++ b/CutoffDate_Test/ExcelFiles/FFmpeg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyeedahmed/Desktop/Gitcode/LLMVerification/CutoffDate_Test/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1211DBB5-FDF2-964C-87E8-D77C342F8D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DEC360-E9AC-4A44-B397-F641C94A48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="-17900" windowWidth="14380" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10080" yWindow="-16760" windowWidth="23100" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commits" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Commit Hash</t>
   </si>
@@ -55,163 +55,83 @@
     <t>lavc/vvc: Avoid UB in DB strength derivation for PLT CUs</t>
   </si>
   <si>
+    <t>libavcodec/vvc/filter.c</t>
+  </si>
+  <si>
+    <t>boundary_strength</t>
+  </si>
+  <si>
+    <t>49726a922fd2b358feb7753488d415180da5121c</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>avfilter/vf_scale: remove global side data when it no longer applies after scaling</t>
+  </si>
+  <si>
+    <t>libavfilter/vf_scale.c</t>
+  </si>
+  <si>
+    <t>config_props</t>
+  </si>
+  <si>
+    <t>2919767750da9acc9042fcc2b8fa3e134cfd16c9</t>
+  </si>
+  <si>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>Revert "avformat/dump: print only the actual streams in a tile grid group"</t>
+  </si>
+  <si>
+    <t>libavformat/dump.c</t>
+  </si>
+  <si>
+    <t>dump_stream_group</t>
+  </si>
+  <si>
+    <t>b9b4c9ebf07748993ad91ba9b9b9f06914d67865</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>avcodec/get_buffer: Use av_buffer_mallocz() for audio same as its done for video</t>
+  </si>
+  <si>
+    <t>libavcodec/get_buffer.c</t>
+  </si>
+  <si>
+    <t>update_frame_pool</t>
+  </si>
+  <si>
+    <t>Modify the function in the provided C file such that it fixes the following issue: Revert "avformat/dump: print only the actual streams in a tile grid group" in dump_stream_group
+Give me the edited .c file as attachment. Replace _original.c with _llm.c. Also show the diff.</t>
+  </si>
+  <si>
+    <t>Modify the function in the provided C file such that it fixes the following issue: avfilter/vf_scale: remove global side data when it no longer applies after scaling in config_props
+Give me the edited .c file as attachment. Replace _original.c with _llm.c. Also show the diff.</t>
+  </si>
+  <si>
     <t>Modify the function in the provided C file such that it fixes the following issue: lavc/vvc: Avoid UB in DB strength derivation for PLT CUs in boundary_strength
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libavcodec/vvc/filter.c</t>
-  </si>
-  <si>
-    <t>boundary_strength</t>
-  </si>
-  <si>
-    <t>d028cf03b875fc44be666e2155b92a2accdd4f1c</t>
-  </si>
-  <si>
-    <t>2025-05-23</t>
-  </si>
-  <si>
-    <t>swscale/swscale_unscaled: fix planarRgbToplanarRgbWrapper() for formats with bpc between 9-14 bits</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: swscale/swscale_unscaled: fix planarRgbToplanarRgbWrapper() for formats with bpc between 9-14 bits in planarRgbToplanarRgbWrapper
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libswscale/swscale_unscaled.c</t>
-  </si>
-  <si>
-    <t>planarRgbToplanarRgbWrapper</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>libavcodec/hevc/hevcdec.c</t>
-  </si>
-  <si>
-    <t>hls_slice_header</t>
-  </si>
-  <si>
-    <t>d34c7384351a4aeb271b22a731e109c60356f068</t>
-  </si>
-  <si>
-    <t>avcodec/hevc/hevcdec: ensure a bit was read when checking for alignment_bit_equal_to_one</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: avcodec/hevc/hevcdec: ensure a bit was read when checking for alignment_bit_equal_to_one in hls_slice_header
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>ffa56f73a9bc5505a0d4d1e1e04a65bf10113dee</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>avcodec/ac3dec: Read spx flags at once, not one bit at a time</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: avcodec/ac3dec: Read spx flags at once, not one bit at a time in spx_strategy
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libavcodec/ac3dec.c</t>
-  </si>
-  <si>
-    <t>spx_strategy</t>
-  </si>
-  <si>
-    <t>49726a922fd2b358feb7753488d415180da5121c</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>avfilter/vf_scale: remove global side data when it no longer applies after scaling</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: avfilter/vf_scale: remove global side data when it no longer applies after scaling in config_props
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libavfilter/vf_scale.c</t>
-  </si>
-  <si>
-    <t>config_props</t>
-  </si>
-  <si>
-    <t>bb033e69107b5baad5fcec63bd8cd0b6908a2041</t>
-  </si>
-  <si>
-    <t>2025-01-19</t>
-  </si>
-  <si>
-    <t>avcodec/ac3dec: only export matrix encoding and downmix info side data when necessary</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: avcodec/ac3dec: only export matrix encoding and downmix info side data when necessary in ac3_decode_frame
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>ac3_decode_frame</t>
-  </si>
-  <si>
-    <t>c08d300481b8ebb846cd43a473988fdbc6793d1b</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>avformat/avformat: also clear FFFormatContext packet queue when closing a muxer</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: avformat/avformat: also clear FFFormatContext packet queue when closing a muxer in avformat_free_context
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libavformat/avformat.c</t>
-  </si>
-  <si>
-    <t>avformat_free_context</t>
-  </si>
-  <si>
-    <t>2919767750da9acc9042fcc2b8fa3e134cfd16c9</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>Revert "avformat/dump: print only the actual streams in a tile grid group"</t>
-  </si>
-  <si>
-    <t>Modify the function in the provided C file such that it fixes the following issue: Revert "avformat/dump: print only the actual streams in a tile grid group" in dump_stream_group
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libavformat/dump.c</t>
-  </si>
-  <si>
-    <t>dump_stream_group</t>
-  </si>
-  <si>
-    <t>b9b4c9ebf07748993ad91ba9b9b9f06914d67865</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>avcodec/get_buffer: Use av_buffer_mallocz() for audio same as its done for video</t>
+Give me the edited .c file as attachment. Replace _original.c with _llm.c. Also show the diff.</t>
   </si>
   <si>
     <t>Modify the function in the provided C file such that it fixes the following issue: avcodec/get_buffer: Use av_buffer_mallocz() for audio same as its done for video in update_frame_pool
-Give me the edited function.</t>
-  </si>
-  <si>
-    <t>libavcodec/get_buffer.c</t>
-  </si>
-  <si>
-    <t>update_frame_pool</t>
+Give me the edited .c file as attachment. Replace _original.c with _llm.c. Also show the diff.</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>Eqv</t>
   </si>
 </sst>
 </file>
@@ -247,8 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,18 +472,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,218 +507,118 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
+      <c r="H5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-      <sortCondition ref="A1:A31"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition ref="A1:A10"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
